--- a/fechamento_2021/fechamento_fevereiro/MeninosFevereiro/SemDataFevereiro.xlsx
+++ b/fechamento_2021/fechamento_fevereiro/MeninosFevereiro/SemDataFevereiro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1815" windowWidth="26355" windowHeight="10890"/>
+    <workbookView xWindow="1920" yWindow="1815" windowWidth="24240" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>VALDOMIRO DOS SANTOS</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>RT-PCR</t>
+  </si>
+  <si>
+    <t>DANIELE BARBOSA DE MORAIS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre</t>
+  </si>
+  <si>
+    <t>Solicitado</t>
+  </si>
+  <si>
+    <t>EDGARD GONZAGA GIUSTI</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Cabeca, Outros</t>
   </si>
 </sst>
 </file>
@@ -592,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI4"/>
+  <dimension ref="A1:BI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +923,70 @@
         <v>6</v>
       </c>
       <c r="BI4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>352167621658</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35630</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>332164673962</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI6" t="s">
         <v>7</v>
       </c>
     </row>
